--- a/Shared_Automated Defect Management Scenarios.xlsx
+++ b/Shared_Automated Defect Management Scenarios.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Query" sheetId="6" r:id="rId1"/>
     <sheet name="Data" sheetId="5" r:id="rId2"/>
-    <sheet name="MetaData" sheetId="9" r:id="rId3"/>
-    <sheet name="Config" sheetId="8" r:id="rId4"/>
-    <sheet name="ReadMe" sheetId="4" r:id="rId5"/>
+    <sheet name="Data1" sheetId="10" r:id="rId3"/>
+    <sheet name="MetaData" sheetId="9" r:id="rId4"/>
+    <sheet name="Config" sheetId="8" r:id="rId5"/>
+    <sheet name="ReadMe" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$I$177</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="181">
   <si>
     <t>Logged by</t>
   </si>
@@ -610,7 +611,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,8 +673,14 @@
       <name val="Aharoni"/>
       <charset val="177"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,12 +696,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -836,35 +837,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1339,13 +1337,13 @@
       <c r="E1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="20" t="s">
         <v>180</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1358,28 +1356,28 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="37">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="33" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="26" t="s">
@@ -1388,28 +1386,28 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="37">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="33" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="26" t="s">
@@ -1418,28 +1416,28 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="37">
+      <c r="A4" s="35">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="33" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="26" t="s">
@@ -1448,28 +1446,28 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="37">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="33" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="26" t="s">
@@ -1478,28 +1476,28 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="37">
+      <c r="A6" s="35">
         <v>1</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="33" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="26" t="s">
@@ -1508,28 +1506,28 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A7" s="37">
+      <c r="A7" s="35">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="34" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="27" t="s">
@@ -1538,28 +1536,28 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A8" s="37">
+      <c r="A8" s="35">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="27" t="s">
@@ -1568,28 +1566,28 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="37">
+      <c r="A9" s="35">
         <v>2</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="33" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="26" t="s">
@@ -1598,28 +1596,28 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="37">
+      <c r="A10" s="35">
         <v>2</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="33" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="26" t="s">
@@ -1628,28 +1626,28 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="37">
+      <c r="A11" s="35">
         <v>2</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="33" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="26" t="s">
@@ -1658,28 +1656,28 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="37">
+      <c r="A12" s="35">
         <v>2</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="33" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="26" t="s">
@@ -1688,28 +1686,28 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="37">
+      <c r="A13" s="35">
         <v>2</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="33" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="26" t="s">
@@ -1718,28 +1716,28 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="37">
+      <c r="A14" s="35">
         <v>2</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="34" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="27" t="s">
@@ -1748,28 +1746,28 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
-      <c r="A15" s="37">
+      <c r="A15" s="35">
         <v>2</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="34" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="27" t="s">
@@ -6599,13 +6597,1979 @@
       <c r="N177" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I177"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C177"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" style="30" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30">
+      <c r="A93" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30">
+      <c r="A94" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30">
+      <c r="A95" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30">
+      <c r="A96" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30">
+      <c r="A97" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30">
+      <c r="A98" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30">
+      <c r="A99" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="30">
+      <c r="A100" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30">
+      <c r="A101" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30">
+      <c r="A102" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B122" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B124" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C126" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C131" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B133" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B136" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B137" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B139" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B145" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B146" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B147" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B149" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B150" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C150" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B151" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B152" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B153" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B154" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B155" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C155" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C156" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B157" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C157" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B158" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B159" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B160" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B161" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B163" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C163" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B164" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C164" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B165" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B166" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C166" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B167" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B168" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C168" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B169" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B170" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B171" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B173" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C174" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B175" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C175" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B176" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C176" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C177" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -6620,10 +8584,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6672,12 +8636,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6688,19 +8652,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6726,7 +8690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
